--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2911.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2911.xlsx
@@ -351,13 +351,13 @@
         <v>1.12922613718203</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.121095701711418</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2911.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2911.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.12922613718203</v>
+        <v>1.432721376419067</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.971966505050659</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.017925500869751</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>4.899716377258301</v>
       </c>
       <c r="E1">
-        <v>1.121095701711418</v>
+        <v>0.9230487942695618</v>
       </c>
     </row>
   </sheetData>
